--- a/de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr/EBSCO Additional EC Servisbot TranslationsTest2-en_us-de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr-C.xlsx
+++ b/de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr/EBSCO Additional EC Servisbot TranslationsTest2-en_us-de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr-C.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\AppData\Roaming\memsource\mso-converter\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B788F4E-098C-412C-A389-7CDCE3113791}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5AE8319-6D90-41A9-9EDB-E8B524DD0CCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21060" windowHeight="10665" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21060" windowHeight="10665" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output-edit" sheetId="1" state="hidden" r:id="rId1"/>

--- a/de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr/EBSCO Additional EC Servisbot TranslationsTest2-en_us-de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr-C.xlsx
+++ b/de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr/EBSCO Additional EC Servisbot TranslationsTest2-en_us-de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr-C.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\AppData\Roaming\memsource\mso-converter\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5AE8319-6D90-41A9-9EDB-E8B524DD0CCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DAB4A60-700E-4BC0-9BD7-5F93195E1715}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21060" windowHeight="10665" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21060" windowHeight="10785" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output-edit" sheetId="1" state="hidden" r:id="rId1"/>

--- a/de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr/EBSCO Additional EC Servisbot TranslationsTest2-en_us-de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr-C.xlsx
+++ b/de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr/EBSCO Additional EC Servisbot TranslationsTest2-en_us-de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr-C.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\AppData\Roaming\memsource\mso-converter\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DAB4A60-700E-4BC0-9BD7-5F93195E1715}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B8ADC86-D76D-481C-8433-7B5FA043AF7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21060" windowHeight="10785" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21060" windowHeight="10785" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output-edit" sheetId="1" state="hidden" r:id="rId1"/>

--- a/de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr/EBSCO Additional EC Servisbot TranslationsTest2-en_us-de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr-C.xlsx
+++ b/de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr/EBSCO Additional EC Servisbot TranslationsTest2-en_us-de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr-C.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\AppData\Roaming\memsource\mso-converter\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B8ADC86-D76D-481C-8433-7B5FA043AF7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4FD5ED7-7E1A-424D-81D2-E6F80DE3335C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21060" windowHeight="10785" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21060" windowHeight="10665" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output-edit" sheetId="1" state="hidden" r:id="rId1"/>

--- a/de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr/EBSCO Additional EC Servisbot TranslationsTest2-en_us-de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr-C.xlsx
+++ b/de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr/EBSCO Additional EC Servisbot TranslationsTest2-en_us-de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr-C.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\AppData\Roaming\memsource\mso-converter\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4FD5ED7-7E1A-424D-81D2-E6F80DE3335C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EADD825-B323-47D4-9003-A4DDD2751AF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21060" windowHeight="10665" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21060" windowHeight="10665" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output-edit" sheetId="1" state="hidden" r:id="rId1"/>

--- a/de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr/EBSCO Additional EC Servisbot TranslationsTest2-en_us-de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr-C.xlsx
+++ b/de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr/EBSCO Additional EC Servisbot TranslationsTest2-en_us-de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr-C.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\AppData\Roaming\memsource\mso-converter\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EADD825-B323-47D4-9003-A4DDD2751AF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E6C3C93-5B71-4703-BE7E-AB3F6B0A8152}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21060" windowHeight="10665" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21060" windowHeight="10785" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output-edit" sheetId="1" state="hidden" r:id="rId1"/>

--- a/de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr/EBSCO Additional EC Servisbot TranslationsTest2-en_us-de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr-C.xlsx
+++ b/de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr/EBSCO Additional EC Servisbot TranslationsTest2-en_us-de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr-C.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\AppData\Roaming\memsource\mso-converter\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E6C3C93-5B71-4703-BE7E-AB3F6B0A8152}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0AE5B72-ECE1-49F6-BCA5-B3D4442C89A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21060" windowHeight="10785" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21060" windowHeight="10785" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output-edit" sheetId="1" state="hidden" r:id="rId1"/>

--- a/de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr/EBSCO Additional EC Servisbot TranslationsTest2-en_us-de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr-C.xlsx
+++ b/de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr/EBSCO Additional EC Servisbot TranslationsTest2-en_us-de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr-C.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\AppData\Roaming\memsource\mso-converter\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0AE5B72-ECE1-49F6-BCA5-B3D4442C89A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CEDDC64-DD6F-460B-97CD-5B4E3A34BF2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21060" windowHeight="10785" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21060" windowHeight="10665" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output-edit" sheetId="1" state="hidden" r:id="rId1"/>

--- a/de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr/EBSCO Additional EC Servisbot TranslationsTest2-en_us-de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr-C.xlsx
+++ b/de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr/EBSCO Additional EC Servisbot TranslationsTest2-en_us-de-hi-ko-ja-it-pt_br-zh_cn-fr-es-tr-C.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\AppData\Roaming\memsource\mso-converter\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CEDDC64-DD6F-460B-97CD-5B4E3A34BF2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CD5D70C-80DF-44FB-9A44-7F142C52527A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21060" windowHeight="10665" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21060" windowHeight="10665" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output-edit" sheetId="1" state="hidden" r:id="rId1"/>
